--- a/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
+++ b/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7a43267b7fa0998/Github Repositories/WilsonThrust510/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7a43267b7fa0998/Github Repositories/WilsonThrust510/Documentation/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="13_ncr:1_{4CFC658E-4AEC-40E1-A032-CD259F0AAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA12D566-2108-419B-B4BB-67E8729488AE}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{4CFC658E-4AEC-40E1-A032-CD259F0AAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C06DB2-C3B3-47F9-9972-AB2885B8684D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Large PCB Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Small PCB Parts" sheetId="4" r:id="rId2"/>
     <sheet name="Input Hardware" sheetId="6" r:id="rId3"/>
     <sheet name="Build Materials &amp; Random" sheetId="8" r:id="rId4"/>
-    <sheet name="Fastners" sheetId="10" r:id="rId5"/>
+    <sheet name="Fasteners" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5722,7 +5722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5745,30 +5745,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5780,71 +5766,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5869,6 +5801,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5900,39 +5862,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5954,6 +5883,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6255,9 +6188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCF817-8F85-4AC7-830C-DC635E268E92}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6266,7 +6199,7 @@
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -6275,50 +6208,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6327,16 +6260,16 @@
       <c r="B3" s="1">
         <v>56</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -6345,7 +6278,7 @@
       <c r="H3" s="4">
         <v>6.99</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -6354,16 +6287,16 @@
       <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -6372,23 +6305,23 @@
       <c r="H4" s="4">
         <v>0.04</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6397,16 +6330,16 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -6415,21 +6348,21 @@
       <c r="H6" s="4">
         <v>0.35</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6438,16 +6371,16 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -6456,21 +6389,21 @@
       <c r="H8" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6479,16 +6412,16 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -6497,21 +6430,21 @@
       <c r="H10" s="5">
         <v>18.53</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -6520,13 +6453,13 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -6535,10 +6468,10 @@
       <c r="H12" s="5">
         <v>1.65</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6549,13 +6482,13 @@
       <c r="B13" s="1">
         <v>24</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -6564,10 +6497,10 @@
       <c r="H13" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="54"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -6576,13 +6509,13 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -6591,10 +6524,10 @@
       <c r="H14" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6603,13 +6536,13 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -6618,10 +6551,10 @@
       <c r="H15" s="5">
         <v>1.96</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="54"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -6630,13 +6563,13 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -6645,24 +6578,24 @@
       <c r="H16" s="5">
         <v>6.64</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -6671,16 +6604,16 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -6697,16 +6630,16 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -6723,16 +6656,16 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -6741,7 +6674,7 @@
       <c r="H20" s="4">
         <v>10.97</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6790,7 +6723,7 @@
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
@@ -6798,31 +6731,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6833,13 +6766,13 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -6851,7 +6784,7 @@
       <c r="H2" s="4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6862,13 +6795,13 @@
       <c r="B3" s="1">
         <v>35</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6880,7 +6813,7 @@
       <c r="H3" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6891,13 +6824,13 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -6909,7 +6842,7 @@
       <c r="H4" s="5">
         <v>0.125</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6962,9 +6895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93DF4F7-3EA2-4CC1-B26E-40F3D884DD27}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="14" sqref="C4 C5 C7 C8 C10 C15 C17 C18 C19 C20 C22 C24 C25 C28 C26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,8 +6906,8 @@
     <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
@@ -6983,50 +6916,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7035,16 +6968,16 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -7053,7 +6986,7 @@
       <c r="I3" s="5">
         <v>13.69</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7064,16 +6997,16 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -7093,16 +7026,16 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="35" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -7117,18 +7050,18 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7137,16 +7070,16 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="2" t="s">
         <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -7167,16 +7100,16 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -7191,18 +7124,18 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7211,16 +7144,16 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="34" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -7235,18 +7168,18 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7255,16 +7188,16 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -7285,19 +7218,19 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -7306,21 +7239,21 @@
       <c r="I13" s="5">
         <v>10.89</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7329,16 +7262,16 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -7353,18 +7286,18 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7373,16 +7306,16 @@
       <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -7394,7 +7327,7 @@
       <c r="I17" s="4">
         <v>9.61</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7405,16 +7338,16 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -7426,7 +7359,7 @@
       <c r="I18" s="4">
         <v>14.62</v>
       </c>
-      <c r="J18" s="54"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7435,16 +7368,16 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="2" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -7467,16 +7400,16 @@
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="2" t="s">
         <v>139</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -7485,23 +7418,23 @@
       <c r="I20" s="4">
         <v>5.5</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="6" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7510,16 +7443,16 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -7536,18 +7469,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -7556,16 +7489,16 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -7588,16 +7521,16 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -7618,16 +7551,16 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -7644,18 +7577,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -7664,19 +7597,19 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="2" t="s">
         <v>366</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -7685,7 +7618,7 @@
       <c r="I28" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7788,9 +7721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686073A0-D06A-4A43-B3C7-39882209510A}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7799,8 +7732,8 @@
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -7809,131 +7742,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="26">
         <v>8</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="26">
         <v>8</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="12">
         <v>0.1</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="19" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="22">
         <v>8.99</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -7941,91 +7874,90 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="22">
         <v>14.55</v>
       </c>
-      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="35" t="s">
         <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="2" t="s">
         <v>339</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="12">
         <v>9.9700000000000006</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -8033,37 +7965,37 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="29" t="s">
         <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -8072,48 +8004,48 @@
       <c r="H11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="12">
         <v>7.99</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="26">
         <v>1</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="26">
         <v>4</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="2" t="s">
         <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -8122,94 +8054,94 @@
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="12">
         <v>9.99</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="42"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>1</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="23">
         <v>13.49</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="K15" s="42"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="28" t="s">
         <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -8218,28 +8150,28 @@
       <c r="H17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="26">
         <v>1</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="27" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="2" t="s">
         <v>303</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -8248,43 +8180,43 @@
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="12">
         <v>7.99</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="26">
         <v>1</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="26">
         <v>2</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -8293,28 +8225,28 @@
       <c r="H20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="12">
         <v>11.99</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="26">
         <v>1</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="26">
         <v>1</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -8323,28 +8255,28 @@
       <c r="H21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="12">
         <v>12.49</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="26">
         <v>1</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="26">
         <v>1</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -8353,43 +8285,43 @@
       <c r="H22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="12">
         <v>7.99</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="26">
         <v>1</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="26">
         <v>1</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="2" t="s">
         <v>338</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -8398,7 +8330,7 @@
       <c r="H24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="12">
         <v>8.99</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -8406,37 +8338,37 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="26">
         <v>1</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="26">
         <v>1</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="34" t="s">
         <v>372</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="2" t="s">
         <v>318</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -8445,48 +8377,48 @@
       <c r="H26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="12">
         <v>1.32</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="21" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="26">
         <v>1</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="29" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -8495,43 +8427,43 @@
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="12">
         <v>5.99</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="26">
         <v>1</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="26">
         <v>1</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="2" t="s">
         <v>328</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -8540,30 +8472,30 @@
       <c r="H30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="12">
         <v>4.55</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="26">
         <v>1</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="26">
         <v>1</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="2" t="s">
         <v>328</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -8572,75 +8504,75 @@
       <c r="H31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="12">
         <v>5.17</v>
       </c>
-      <c r="J31" s="54"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="50">
+      <c r="A33" s="26">
         <v>1</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="26">
         <v>4</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="2" t="s">
         <v>332</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="12">
         <v>8.99</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="21" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -8652,7 +8584,7 @@
       <c r="H35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="6"/>
@@ -8722,22 +8654,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A23:K23"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A32:K32"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="J30:J31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{EF6854EA-9FC9-4FFA-B284-7464CDC602EE}"/>
@@ -8770,7 +8702,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8779,54 +8711,54 @@
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="16" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8835,19 +8767,19 @@
       <c r="B3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -8864,19 +8796,19 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="2" t="s">
         <v>236</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -8893,19 +8825,19 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -8922,19 +8854,19 @@
       <c r="B6" s="1">
         <v>27</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="2" t="s">
         <v>242</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -8951,19 +8883,19 @@
       <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="35" t="s">
         <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="2" t="s">
         <v>386</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -8980,19 +8912,19 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="35" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="2" t="s">
         <v>390</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -9009,19 +8941,19 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="2" t="s">
         <v>243</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -9032,17 +8964,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9051,16 +8983,16 @@
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -9080,16 +9012,16 @@
       <c r="B12" s="1">
         <v>38</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -9109,19 +9041,19 @@
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="2" t="s">
         <v>258</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -9138,16 +9070,16 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -9161,107 +9093,107 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="4">
         <v>6.14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="2" t="s">
         <v>273</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="4">
         <v>7.33</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="2" t="s">
         <v>272</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -9278,19 +9210,19 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="2" t="s">
         <v>271</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -9317,44 +9249,44 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="17"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="17"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="17"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
@@ -9399,12 +9331,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9642,18 +9574,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9679,19 +9621,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
+++ b/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7a43267b7fa0998/Github Repositories/WilsonThrust510/Documentation/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{4CFC658E-4AEC-40E1-A032-CD259F0AAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C06DB2-C3B3-47F9-9972-AB2885B8684D}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="14_{D6E80435-493E-47AA-B39A-89A10D29D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12346C78-727E-4E73-9B1F-7E8CE3AC3091}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
+    <workbookView xWindow="4740" yWindow="1050" windowWidth="33270" windowHeight="17640" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Large PCB Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Small PCB Parts" sheetId="4" r:id="rId2"/>
     <sheet name="Input Hardware" sheetId="6" r:id="rId3"/>
-    <sheet name="Build Materials &amp; Random" sheetId="8" r:id="rId4"/>
+    <sheet name="Other Hardware &amp; Materials" sheetId="8" r:id="rId4"/>
     <sheet name="Fasteners" sheetId="10" r:id="rId5"/>
+    <sheet name="Equipment" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="387">
   <si>
     <t>Amazon</t>
   </si>
@@ -113,52 +114,24 @@
     <t>RKJXT1F42001</t>
   </si>
   <si>
-    <t>Toggle Switch</t>
-  </si>
-  <si>
     <t>100SP4T1B1M1QEH</t>
   </si>
   <si>
     <t>Additional Comments/Notes</t>
   </si>
   <si>
-    <t>UB15KKW015F-FF</t>
-  </si>
-  <si>
-    <t>LB15SKW01-5C-JC</t>
-  </si>
-  <si>
-    <t>AT499</t>
-  </si>
-  <si>
-    <t>Ooof! That cost, right?  You don't need to buy these switches.  For the main 3x3 Button Grid and Panic Button, you can use any SPDT illuminated switches that will snap into 16.2mm square panel cutouts. they have to be illuminated for this build otherwise the won't connect to the main pcbs using the 3-pin headers I designed the board with. Just make sure they are not too tall as the Main Controller Board is right underneath the Button Grid.
-That being said, these over priced NKK switches are the most satisfying to press push button switches I've ever purchased.</t>
-  </si>
-  <si>
     <t>Kailh Choc Switch V1</t>
   </si>
   <si>
     <t>MKUltra</t>
   </si>
   <si>
-    <t>Selector Switch</t>
-  </si>
-  <si>
     <t>56DP30-01-2-AJN</t>
   </si>
   <si>
-    <t>Knobs, Dials, and Wheels</t>
-  </si>
-  <si>
-    <t>11K5015-KCNG</t>
-  </si>
-  <si>
     <t>2056 (Adafruit)</t>
   </si>
   <si>
-    <t>11K5029-KMNB</t>
-  </si>
-  <si>
     <t>Magnets</t>
   </si>
   <si>
@@ -186,9 +159,6 @@
     <t>McMaster-Carr</t>
   </si>
   <si>
-    <t>Analog Directional Switch</t>
-  </si>
-  <si>
     <t>Screws</t>
   </si>
   <si>
@@ -216,13 +186,7 @@
     <t>91292A005</t>
   </si>
   <si>
-    <t>93395A198</t>
-  </si>
-  <si>
     <t>90666A102</t>
-  </si>
-  <si>
-    <t>91420A328</t>
   </si>
   <si>
     <t>91294A210</t>
@@ -268,28 +232,13 @@
     <t>Zoro</t>
   </si>
   <si>
-    <t>Screw Pin</t>
-  </si>
-  <si>
-    <t>USB Cables</t>
-  </si>
-  <si>
     <t>Internally Threaded Rods</t>
   </si>
   <si>
     <t>Used to brace the detent pullup system.</t>
   </si>
   <si>
-    <t>Used to brace the detent pullup system's screw pins that run along the detent tabs.</t>
-  </si>
-  <si>
     <t>Used as the arm for side throttle.</t>
-  </si>
-  <si>
-    <t>Externally Threaded Rod</t>
-  </si>
-  <si>
-    <t>Arcade Joystick Handle</t>
   </si>
   <si>
     <t>JW Winco</t>
@@ -318,12 +267,6 @@
     <t>PEC11R-4015K-S0024</t>
   </si>
   <si>
-    <t>Round Push Buttons</t>
-  </si>
-  <si>
-    <t>Square Push Buttons</t>
-  </si>
-  <si>
     <t>Controller or "brain" of your throttle.</t>
   </si>
   <si>
@@ -362,12 +305,6 @@
   </si>
   <si>
     <t>Ribbon Cable Parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any selector knob would work so long as it will fit a 1/4 in. flatted actuator stem. </t>
-  </si>
-  <si>
-    <t>Cheaper options available.  Just look for small knobs for 1/4 in. knurled actuator stem.</t>
   </si>
   <si>
     <t>You can always crimp your own cable by buying all the parts yourself but it's not easy to crimp these if you haven't crimped such small connectors.  The choice is yours.</t>
@@ -400,12 +337,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A lot of notes on this item.  First, you can't use a standard magnet with these sensors.  Standard round flat magnets have their poles on the flat sides of the magnet.  The magnets included with these sensors are "radial magnets".  That means that each flat side has both north and south poles on them, split down the middle.  This sensor will only work with the included magnet or another radial magnet of the same dimensions and strength.
-Second, I found it cheapest to buy 5x packs of these boards since I'm making four of these throttles requiring eight of these sensor boards, total. You can buy them in smaller packs or individually.  You just make sure that the ones you get match the dimensions of the boards I linked to. They list the board as being 23mmx23mm but I measured them as 22.7mmx23.2mm.
-Example of similar item being sold in a two pack that I believe should be the same design but I can't confirm as I didn't purchase this one: https://a.co/d/6JahtUr
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Used on the following parts:
 Main Grip Covering
 Main Throttle Friction Adjustment Pad
@@ -427,10 +358,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Only needed if not mounting.  Otherwise, pick the shape, size, color, and brand you like.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">You can pick a different tension springs if you'd like.  These are 1.071 lb at halfway up the leg extension which is quite heavy.  If you go lighter or heavier, you just want to make sure it's not too much wider (Wire Diameter x Number of Coils) and that it has a Max. Rod Outside Diameter of 0.187 in or larger. Also, know that you'll need one wind direction left hand and one right hand.
 </t>
   </si>
@@ -452,9 +379,6 @@
   </si>
   <si>
     <t>B07SPRRYFS</t>
-  </si>
-  <si>
-    <t>B07MJBJND7</t>
   </si>
   <si>
     <t>B07MQ5C8L9</t>
@@ -538,12 +462,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2-pin Pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
-Palm Button
-Joystick Center Click
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-pin Pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
 LED Toggle Switch
 </t>
@@ -555,43 +473,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7-pin pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
-Thumb Hat/Encoder
-Thumb Hat 1
-Thumb Hat 2
-Middle Finger Hat
-Pinky 3-way Hat
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-pin Pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
-Grid Buttons (9x)
-Panic Button
-Encoders (3x)
-Pinky Potentiometers
-Illuminated Grip Buttons (4x)
-2-way Toggle Switches (2x)
-Side Mute Buttons (2x)
-Main and Mini Throttle Sensors (2x)
-</t>
-  </si>
-  <si>
-    <t>Only 24 needed out of the lot of 50.</t>
-  </si>
-  <si>
     <t>Only one needed out of the lot of five.</t>
   </si>
   <si>
     <t>Only two needed in this lot of five.</t>
   </si>
   <si>
-    <t>Only five needed in this lot of 10.</t>
-  </si>
-  <si>
     <t>Additional Comments/Notes 2</t>
-  </si>
-  <si>
-    <t>Try not to go any longer on the ribbon length than 200mm</t>
   </si>
   <si>
     <t>Specifications 3</t>
@@ -749,18 +637,6 @@
 Voltage Rating - AC: 115 V
 Voltage Rating - DC: 30 V
 Actuator Type: Flatted (3.17mm Dia)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illum. Type, Color: LED, Red
-Illum. Volt. (Nom): 1.9 VDC
-Term. Style: Solder, Quick Connect
-Term. Size: 0.110" (2.8mm)
-Panel Cutout Shape: Square
-Panel Cutout Dim.: 16.20 x 16.20
-Operating Temp.: -25°C ~ 50°C
-Mechanical Life: 1,000,000 Cycles
-Electrical Life: 100,000 Cycles
 </t>
   </si>
   <si>
@@ -784,89 +660,9 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Knob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Mfr: Adafruit Industries LLC
-Style: Cylindrical
-Type: Knurled, Diamond
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicator: Arrow on Top
-Material: Metal
-Color: Black
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shaft Size: 0.236" (6.00mm)
 Diameter: 1.000" (25.40mm)
 Height: 0.600" (15.24mm)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Knob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Mfr: Grayhill Inc.
-Series: 11K
-Style: Cylindrical
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Type: Knurled, Straight
-Shaft Size: 0.250" (6.35mm)
-Diameter: 0.500" (12.70mm)
-Height: 0.500" (12.70mm)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material: Plastic
-Color: Black
-Features: Set Screws
-Base Product Number: 11K5029
 </t>
   </si>
   <si>
@@ -946,72 +742,6 @@
 Series: 56
 Number of Positions: 2 ~ 6
 Index Stops: Adjustable
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Product Number: LB15SKW01
-Type: Standard, Illuminated
-Circuit: SPDT
-Current Rating (Amps): 3A (AC/DC)
-Voltage Rating - AC: 125 V
-Voltage Rating - DC: 30 V
-Actuator Type: Square, Button
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Product Cat: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pushbutton Switches
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Switch Function: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On-Mom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Mfr: NKK Switches
-Series: LB
-Mounting Type: Panel Mount
-Mounting Type2: Snap-In
-Actuator Marking: No Marking
-Color (Cap): Clear 
-Color (Diffuser): Red
 </t>
     </r>
   </si>
@@ -1113,41 +843,6 @@
 Width: 9 mm
 Height: 6.5 mm
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cat1: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rotary Pot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Subcat: Pots, Var. Resistors
-Mfr: Bourns Inc.
-Series: Pro Audio PTD90
-Resistance (Ohms): 50k
-Tolerance: ±20%
-Power (Watts): 0.05W, 1/20W
-Built in Switch: None
-Number of Turns: 1
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Actuator Diameter: 0.236" (6.00mm)
@@ -1409,60 +1104,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Product Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Toggle Switch
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Switch Function: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ON) - OFF - (ON)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manufacturer: E-Switch
-Illuminated: Non-Illuminated
-Contact Form: SPDT
-Mounting Style: Panel Mount
-Termination Style: Solder Lug
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Voltage Rating AC: 125 VAC
 Bushing Size: 14614
 Actuator: Bat
@@ -1470,188 +1111,6 @@
 Contact Plating: Silver
 Contact Material: Silver
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actuator Style: Plunger
-Flammability Rating: UL 94 V-0
-Housing Material: Polyamide
-Material2: Glass Fiber Reinforced
-Illumination: Illuminated
-Life: 1000000 Cycles
-Terminal Seal: Epoxy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamp Type: LED
-Illumination Color: Green
-Actuator: Square
-Current Rating: 0.2083
-Voltage Rating AC: 250 VAC
-Term. Style: Solder Lug
-Cap Color: Green
-Contact Plating: Silver
-</t>
-  </si>
-  <si>
-    <r>
-      <t>Product Cat.:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pushbutton Switches
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Switch Function</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: On-Mom
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Manufacturer: NKK Switches
-Series: UB
-Type: Sealed
-Illuminated: Illuminated
-Contact Form: SPDT
-Mounting Style: Panel Mount
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Switch Cover/Guard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Cat2: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Accessories
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Series: LB
-For Use With: LB Switches - Square
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaft Diameter: 1/4 in
-Outside Diameter: 23 mm
-Height: 17 mm
-</t>
-  </si>
-  <si>
-    <t>Material: Plastic
-Design: Knurled, Straight
-Color: Gray</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Knobs &amp; Dials
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cylindrical Knob with Skirt
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Manufacturer: Grayhill
-Indicator Style: Arrow on Skirt
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1964,35 +1423,6 @@
 Supplier Device Package: 16-TSSOP
 Base Product Number: 74HC165
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Series: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Teensy 2.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Category: Development Board
-Brand: PJRC
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2373,60 +1803,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Product Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FFC / FPC Jumper Cable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Number of Conductors: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40 Conductor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manufacturer: Molex
-Pitch: 0.5 mm
-Cable Length: 203 mm
-Contact Location: Same Side Contacts
-Current Rating: 500 mA
-</t>
-    </r>
-  </si>
-  <si>
     <t>Voltage Rating: 600 VAC
 Series: 15366
 Contact Plating: Tin
@@ -2434,83 +1810,6 @@
 Min. Operating Temp.: - 40 C
 Tradename: Premo-Flex
 Part # Aliases: 153660439 0153660439</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Product Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FFC &amp; FPC Connector
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Number of Positions:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 40 Position
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mounting Angle: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Right Angle - 1 Sided
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Subcat: FFC, FPC (Flat Flexible) Connectors
-Manufacturer: TE Connectivity
-Product: Board Mount
-Pitch: 0.5 mm
-Termination Style: SMD/SMTContact
-Location: Top Contact
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Contact Plating: Gold
@@ -2746,47 +2045,6 @@
     <t>91263A432</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat Head Profile: Standard
-Head Diameter: 6 mm
-Head Diameter Tolerance: -0.3 to 0 mm
-Head Height: 1.7 mm
-Drive Style: Hex 
-Drive Size: 2 mm
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thread Type: Metric 
-Thread Spacing: Coarse 
-Thread Fit: Class 6g
-Thread Direction: Right Hand 
-Head Type: Flat
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Thread Direction: Right Hand 
 Head Type: Socket
@@ -2822,9 +2080,6 @@
   </si>
   <si>
     <t>Used for holding most of the throttle shells together and various other things.</t>
-  </si>
-  <si>
-    <t>Only used if you plan to mount the throttle instead of using it on a table or desk.</t>
   </si>
   <si>
     <t xml:space="preserve">Thread Size: M2 
@@ -3285,67 +2540,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Outside Diameter: 5 mm
-Inside Diameter: 3 mm
-Thickness: .2 mm
-Fastner Size: M3
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 Steel Washers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: WKOOA
-Material: Stainless Steel 18-8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50 pcs</t>
-    </r>
-  </si>
-  <si>
-    <t>Used to reduce drag on Detent Pullup mechanism.</t>
-  </si>
-  <si>
     <t>Used to prevent shorts/damage on the Main Controller Board when screwing into place.</t>
   </si>
   <si>
     <t>Used to prevent shorts/damage with small switch pcbs in the Main Throttle Grip when screwing them into place.</t>
-  </si>
-  <si>
-    <t>B08ZYKYZH9</t>
   </si>
   <si>
     <t>B07R8CH9BL</t>
@@ -3493,67 +2691,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Magnetic Properties: Magnetic
-Elongation: 0.2
-Weight: 1/4 lb.
-Container Type: Coil
-Length: 46 ft.
-</t>
-  </si>
-  <si>
     <t>89065K75</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">430 Stainless Steel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Shape: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Shape Type: Wire
-Diameter: 0.045"
-Diam. Tol.: -0.001" to 0.001"
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Tol. Rating: Standard
@@ -3592,39 +2730,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mounting Holes: 5mm
-Material: Stainless Steel
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Color: Black Oxide
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Category: </t>
     </r>
@@ -3644,61 +2749,6 @@
   <si>
     <t xml:space="preserve">L x W: 25.4mm x 25.4mm
 Thickness: 4.6mm
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ball Bearing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Profile: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6804ZZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OD: 32mm
-ID: 20mm
-Width: 7mm
 </t>
   </si>
   <si>
@@ -3942,56 +2992,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 40 mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Uxcell
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">M3 Standoff / Spacer Bar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Length:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 35 mm</t>
     </r>
     <r>
@@ -4362,13 +3362,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: Link is long because it's for a specific configuration.
-</t>
-  </si>
-  <si>
-    <t>I've linked out to the basic option of a plain black plastic knob with a M6 tapped insert that has a diameter of 25mm but I still can't decide what grip I like the most.  This site makes great lever grips that work well as arcade stick handles.  They range in price and shape but are all of the highest caliber.  Although pricey, I really like the brushed metal 25mm knob but the Ergostyle ball handles and domed gear levers feel great too.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Only one needed but could only find at a reasonable price for a pack of 10.
 </t>
   </si>
@@ -4406,12 +3399,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Used to hold the following parts in place:
-Main Throttle Friction Adjustment Knob
-Side Mini Throttle Friction Adjustment Knob
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Only need four but have to buy in bulk.  Smallest pack I could find from reliable source was 25.
 </t>
   </si>
@@ -4431,45 +3418,8 @@
 Unit / Lot</t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE:  This link used to offer 4 at this size in black oxide.  Now they offer the right size still but in a pack of 10 with no oxide finish : /  You might need to hunt around if you want to buy less than 10 and if you want black oxide coating.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Only one is needed if you know you will be mounting the throttle but you still need one if you are mounting using a Thrustmaster TWCS Throttle mount. If using on a desk, two are needed.  If you use this link, select the size option: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-4/5 Inch(10 Pcs)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Used for the following input:
 Profile Selector
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is another one where you can get a cheaper part.  There is a mount that is glued in place for the selector switch.  You can just change the cut out size to use a less expensive switch.  I went with this one because the first two I tried both didn't feel right and one failed on me just while testing.
 </t>
   </si>
   <si>
@@ -4504,11 +3454,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Push Button used for the following input:
-Panic Button
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Used for the following input:
 Panic Button
 </t>
@@ -4516,15 +3461,6 @@
   <si>
     <t xml:space="preserve">I like the White version which is "Clicky" with an actuating force of 60±10gf but any Chocolate v1 switch will fit my design.
 If you want, you could get two sample packs from MKUltra.  They are $7 a piece so you'd pay more but you would have two of every variety and some keycaps.  Then you could pick your favorite type for the Push buttons.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only needed if you are buying the NKK LB Panic button. Otherwise, you can get a switch that will fit the panel cutand has a cover or you can a switch without the cover.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessory Type: Protective Guard
-Mfr: NKK Switches
 </t>
   </si>
   <si>
@@ -4675,24 +3611,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>DIN 
-319-KU-25-M6-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to extend out the back of the Box to prevent tipping when using unmounted on a desk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Slip rubber feet for desktop usage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to smooth rotation of:
-Main Throttle
-Side Throttle
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">So, you can get the cheaper Uxcell bearings which are 13.45 for 10 (and only use 3) or you can get nicer bearings.  It's up to you.  Just know there is a difference.  Here is a link to the bearings I ended up using from McMaster-Carr: https://www.mcmaster.com/5972K279/
 The McMaster-Carr bearings are smoother than any bearing I've gotten from amazon but you pay much more for that quality and precision.
 </t>
@@ -4726,8 +3644,1432 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Thread Spacing: Coarse
-Thread Fit: Class 6h
+      <t xml:space="preserve">Thread Spacing: Coarse 
+Thread Fit: Class 6g
+Thread Direction: Right Hand
+Head Type: Flat
+Flat Head Profile: Standard
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for attaching the Main Throttle Grip to the throttle arm, Hold the Grip PCB in place, and attach the Grip Front Block to the Grip Main Body.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M2 x 5mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: 	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JCIS10-70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Pitch: 0.4 mm
+Length: 5 mm
+Threading: Fully Threaded
+Head Diameter: 3 mm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M2 x 5mm Cap Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 912, ISO 4762</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Head Type: Socket
+Socket Head Profile: Standard
+Drive Style: Hex 
+System of Measurement: Metric
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 5mm Cap Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 5mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M5 x 12mm Tapered Screws
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991, ISO 10642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M5 
+Thread Pitch: 0.8 mm
+Length: 12 mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M5 Nylon Lock Nut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Spec. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 985, ISO 10511</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Prop. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Size: M5 
+    Pitch: 0.8 mm
+    Type: Metric 
+    Spacing: Coarse 
+    Fit: Class 6H
+    Direction: Right Hand
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
+  </si>
+  <si>
+    <t>TS26-2-TW-U-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder Specifications: 260C for 3 sec.
+Operating Force: 250±50gf
+Total Travel: 0.4±0.15mm
+</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Lamp Type: LED
+Illumination Color: Blue
+Actuator: Square
+Current Rating: 50mA
+Voltage Rating: 12VDC
+Term. Style: Pins
+Cap Color: Clear
+Cap Dimensions: 15 x 15 mm</t>
+  </si>
+  <si>
+    <t>Make sure that, if you use the AliExpress link I shared, you select the right size switch and the right colors.  You want the 15x15mm buttons.</t>
+  </si>
+  <si>
+    <t>TS26-2-TW-R-S</t>
+  </si>
+  <si>
+    <t>Lamp Type: LED
+Illumination Color: Red
+Actuator: Square
+Current Rating: 50mA
+Voltage Rating: 12VDC
+Term. Style: Pins
+Cap Color: Clear
+Cap Dimensions: 15 x 15 mm</t>
+  </si>
+  <si>
+    <t>Push Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft Diameter: 1/4 in
+Outside Diameter: 21 mm
+Height: 15 mm
+</t>
+  </si>
+  <si>
+    <t>Material: Plastic
+Design: Ribbed
+Color: Black, Silver</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Knobs &amp; Dials
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cylindrical Knob with Skirt
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Series: PKA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Manufacturer: TE Connectivity / P&amp;B
+Indicator Style: Line on Skirt
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PKA50B1/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type: Serrated
+Shaft Size: 0.250" (6.35mm)
+Diameter: 0.450" (11.43mm)
+Height: 0.580" (14.73mm)
+</t>
+  </si>
+  <si>
+    <t>Material: Plastic
+Color: Black
+Features: Soft Touch
+Base Product Number: 1237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material: Metal
+Color: Black
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+1237-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is another one where you can get a cheaper part.  You can just change the cut out size to use a less expensive switch.  I went with this one because the first two I tried both didn't feel right and one failed on me just while testing.
+</t>
+  </si>
+  <si>
+    <t>Toggle Switches</t>
+  </si>
+  <si>
+    <t>Analog Directional Switches</t>
+  </si>
+  <si>
+    <t>Selector Switches</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials</t>
+  </si>
+  <si>
+    <t>A lot of notes on this item.  First, you can't use a standard magnet with these sensors.  Standard round flat magnets have their poles on the flat sides of the magnet.  The magnets included with these sensors are "radial magnets".  That means that each flat side has both north and south poles on them, split down the middle.  This sensor will only work with the included magnet or another radial magnet of the same dimensions and strength.
+Second, I found it cheapest to buy 5x packs of these boards since I'm making four of these throttles requiring eight of these sensor boards, total. You can buy them in smaller packs or individually.  You just make sure that the ones you get match the dimensions of the boards I linked to. They list the board as being 23mmx23mm but I measured them as 22.7mmx23.2mm.
+Example of similar item being sold in a two pack that I believe should be the same design but I can't confirm as I didn't purchase this one: https://a.co/d/6JahtUr</t>
+  </si>
+  <si>
+    <t>Magnetic Properties: Magnetic
+Elongation: 0.2
+Weight: 1/4 lb.
+Container Type: Coil
+Length: 46 ft.</t>
+  </si>
+  <si>
+    <t>Used to hold the following parts in place:
+Main Throttle Friction Adjustment Knob
+Side Mini Throttle Friction Adjustment Knob</t>
+  </si>
+  <si>
+    <t>Used to extend out the back of the Box to prevent tipping when using unmounted on a desk.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Color: Black Oxide
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t>Mounting Holes: 5mm
+Material: Stainless Steel</t>
+  </si>
+  <si>
+    <t>UPDATE:  This link used to offer 4 at this size in black oxide.  Now they offer the right size still but in a pack of 10 with no oxide finish : /  You might need to hunt around if you want to buy less than 10 and if you want black oxide coating.</t>
+  </si>
+  <si>
+    <t>Only needed if not mounting.  Otherwise, pick the shape, size, color, and brand you like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Slip rubber feet for desktop usage
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ball Bearing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Profile: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6804ZZ</t>
+    </r>
+  </si>
+  <si>
+    <t>OD: 32mm
+ID: 20mm
+Width: 7mm</t>
+  </si>
+  <si>
+    <t>Used to smooth rotation of:
+Main Throttle
+Side Throttle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only one is needed if you know you will be mounting the throttle but you still need one if you are mounting using a Thrustmaster TWCS Throttle mount. If using on a desk, two are needed.  If you use this link, select the size option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-4/5 Inch(10 Pcs)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mfr: Adafruit Industries LLC
+Style: Cylindrical
+Type: Knurled, Diamond
+Indicator: Arrow on Top
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mfr: Davies Molding, LLC
+Series: -
+Style: Cylindrical
+Indicator: Line on Side
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Link is long because it's for a specific configuration.
+I've linked out to the basic option of a plain black plastic knob with a M6 tapped insert that has a diameter of 25mm but I still can't decide what grip I like the most.  This site makes great lever grips that work well as arcade stick handles.  They range in price and shape but are all of the highest caliber.  Although pricey, I really like the brushed metal 25mm knob but the Ergostyle ball handles and domed gear levers feel great too.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rotary Pot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Subcat: Pots, Var. Resistors
+Mfr: Bourns Inc.
+Series: Pro Audio PTD90
+Resistance (Ohms): 50k
+Tolerance: ±20%
+Power (Watts): 0.05W, 1/20W
+Built in Switch: None
+Number of Turns: 1
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Toggle Switch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Switch Function: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ON) - OFF - (ON)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Manufacturer: E-Switch
+Illuminated: Non-Illuminated
+Contact Form: SPDT
+Mounting Style: Panel Mount
+Termination Style: Solder Lug
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Category:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pushbutton Switches
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Switch Function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: On-Mom
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Manufacturer: Honyone
+Series: TS26
+Type: Sealed
+Illuminated: Illuminated
+Circuit: SPST 1p1T with LED
+Mounting Style: PC Pins
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micro Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Series: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Teensy 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Category: Development Board
+Brand: PJRC
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FFC &amp; FPC Connector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of Positions:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40 Position
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mounting Angle: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Right Angle - 1 Sided
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subcat: FFC, FPC (Flat Flexible) Connectors
+Manufacturer: TE Connectivity
+Product: Board Mount
+Pitch: 0.5 mm
+Termination Style: SMD/SMTContact
+Location: Top Contact
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FFC / FPC Jumper Cable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Number of Conductors: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40 Conductor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Manufacturer: Molex
+Pitch: 0.5 mm
+Cable Length: 203 mm
+Contact Location: Same Side Contacts
+Current Rating: 500 mA
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">430 Stainless Steel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Series: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bend-and-Stay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Shape: Wire
+Shape Type: Wire
+Diameter: 0.045"
+Diam. Tol.: -0.001" to 0.001"
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Externally Threaded Rods</t>
+  </si>
+  <si>
+    <t>Screw Pins</t>
+  </si>
+  <si>
+    <t>DIN 319-KU-25-M6-E</t>
+  </si>
+  <si>
+    <t>Decal</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following part:
+Panic Button Decal
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">From Ebay Seller
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+How to apply:
+  Apply gloss clear coat (microscale)
+  Plan out the decal placement 
+  Place decal into water for 5-10 seconds 
+  Remove the decal and let it sit out of the water for 30 seconds to 1 minute 
+  Slide the decal onto the part surface 
+  Position the decal using a toothpick or q-tip 
+  Ase a paper towel to remove excess water, and press the towel down to rid as much water as possible 
+  Apply a drop of decal setter and let this sit until it cures, approximately half an hour to a full hour 
+  Spray a gloss clear coat to seal and protect the decal
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: TWPUZZ
+Style: Hazard
+Color: Yellow/Black
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Type: Water-slide decal
+</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>Longer will make connecting to the Grip Satellite PCB easier but you'll have to fold excess cable and tuck it into throttle arm slot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Diameter: 6 mm
+Head Height: 1.7 mm
+Countersink Angle: 90°
+Drive Style: Hex 
+Drive Size: 2 mm
+Thread Type: Metric 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 10mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 10mm
+Material: Black-Oxide Alloy Steel
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 16mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 16 mm
+Material: Black-Oxide Alloy Steel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thread Spacing: Coarse 
+Thread Fit: Class 6g
 Thread Direction: Right Hand 
 Head Type: Flat
 Flat Head Profile: Standard
@@ -4757,12 +5099,70 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Head Diameter: 9.2 mm
-Head Height: 2.5 mm
-Countersink Angle: 90°
-Drive Style: Phillips 
-Drive Size: No. 2
-Thread Type: Metric 
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 6mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 6 mm
+Material: Black-Oxide Alloy Steel
+</t>
+    </r>
+  </si>
+  <si>
+    <t>91294A130</t>
+  </si>
+  <si>
+    <t>91294A126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to attach the Flat Braces to the bottom of the Box shell or to attach to your throttle mount.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For attaching to your throttle mount, you may need longer screws, depending on the thickness of your mounting surface.
 </t>
   </si>
   <si>
@@ -4775,12 +5175,99 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Thread Spacing: Coarse 
-Thread Fit: Class 6g
-Thread Direction: Right Hand
-Head Type: Flat
-Flat Head Profile: Standard
+    <t>Optional:  May be needed to secure throttle to a mounting surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-pin pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
+Thumb Hat/Encoder
+Thumb Hat 1
+Thumb Hat 2
+Middle Finger Hat
+</t>
+  </si>
+  <si>
+    <t>2-pin Pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
+Palm Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-pin Pre-crimped wires and matching connection housings for wiring the following inputs to your Bridge Board and Main Controller Board:
+Grid Buttons (9x)
+Panic Button
+Encoders (3x)
+Pinky Potentiometers
+Illuminated Grip Buttons (4x)
+Slider
+2-way Toggle Switches (2x)
+Side Mute Buttons (2x)
+Main and Side Throttle Sensors (2x)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-pin pre-crimped wires and matching connection housings for wiring the following inputs to your Grip Satellite PCB:
+Joystick
+</t>
+  </si>
+  <si>
+    <t>Only one needed in this lot of 10.</t>
+  </si>
+  <si>
+    <t>Only four needed in this lot of 10.</t>
+  </si>
+  <si>
+    <t>Only 25 needed out of the lot of 50.</t>
+  </si>
+  <si>
+    <t>Only 1 needed in this lot of five.</t>
+  </si>
+  <si>
+    <r>
+      <t>Category:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JST ZH Connection Wire and Socket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Connector Type: JST
+Wire Length (min.): 100mm
+Profile (size): ZH, 1.5mm Pitch
+Connector Pin Count: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8-Pin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Lot: </t>
     </r>
     <r>
@@ -4792,639 +5279,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thread Spacing: Coarse 
-Thread Fit: Class 4g6g
-Thread Direction: Right Hand 
-Head Type: Flat
-Flat Head Profile: Standard
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Head Diameter: 6 mm
-Head Height: 1.7 mm
-Countersink Angle: 90°
-Drive Style: Hex 
-Drive Size: 2.1 mm
-Thread Type: Metric 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for attaching the Main Throttle Grip to the throttle arm, Hold the Grip PCB in place, and attach the Grip Front Block to the Grip Main Body.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M2 x 5mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: 	</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JCIS10-70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Pitch: 0.4 mm
-Length: 5 mm
-Threading: Fully Threaded
-Head Diameter: 3 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M2 x 5mm Cap Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 912, ISO 4762</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Head Type: Socket
-Socket Head Profile: Standard
-Drive Style: Hex 
-System of Measurement: Metric
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 5mm Cap Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 7984</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 5mm
-Threading: Fully Threaded
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to attach the Flat Braces to the bottom of the Box shell.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 6mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 7991</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 6 mm
-Threading: Fully Threaded
-Countersink Angle: 90°
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 16mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 7991</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 16 mm
-Threading: Fully Threaded
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">M5 x 12mm Tapered Screws
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 7991, ISO 10642</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M5 
-Thread Pitch: 0.8 mm
-Length: 12 mm
-Threading: Fully Threaded
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M5 x 20mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Specs. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 965</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M5 
-Thread Pitch: 0.8 mm
-Length: 20 mm
-Threading: Fully Threaded
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M5 Nylon Lock Nut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Spec. Met: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIN 985, ISO 10511</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Prop. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    Size: M5 
-    Pitch: 0.8 mm
-    Type: Metric 
-    Spacing: Coarse 
-    Fit: Class 6H
-    Direction: Right Hand
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Part no</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF007635"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF007635"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amazon ASIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Part no.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF007635"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amazon ASIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Part no.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF007635"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amazon ASIN</t>
+      <t xml:space="preserve">10 pcs
+</t>
     </r>
   </si>
 </sst>
@@ -5722,7 +5578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5832,6 +5688,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5853,6 +5712,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5861,6 +5723,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6188,9 +6053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCF817-8F85-4AC7-830C-DC635E268E92}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,49 +6074,49 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="A2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6261,16 +6126,16 @@
         <v>56</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -6288,16 +6153,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -6306,22 +6171,22 @@
         <v>0.04</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6331,16 +6196,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
@@ -6351,18 +6216,18 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="A7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6375,10 +6240,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
@@ -6392,18 +6257,18 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6413,16 +6278,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -6433,34 +6298,34 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="A11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>1</v>
@@ -6469,27 +6334,27 @@
         <v>1.65</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>1</v>
@@ -6498,9 +6363,9 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="40"/>
+        <v>384</v>
+      </c>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -6510,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>1</v>
@@ -6525,9 +6390,9 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="40"/>
+        <v>126</v>
+      </c>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6540,10 +6405,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>1</v>
@@ -6552,25 +6417,25 @@
         <v>1.96</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>151</v>
+        <v>378</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>1</v>
@@ -6579,51 +6444,52 @@
         <v>6.64</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>383</v>
+      </c>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="C17" s="49">
+        <v>4189304386</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6631,25 +6497,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6657,30 +6523,27 @@
         <v>1</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="4">
-        <v>10.97</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="J12:J16"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A5:J5"/>
@@ -6695,13 +6558,13 @@
     <hyperlink ref="G14" r:id="rId4" xr:uid="{46ECFC56-5C5D-4CAD-8517-248B994EEABC}"/>
     <hyperlink ref="G15" r:id="rId5" xr:uid="{809F7427-B0A2-48C1-994B-17BCE9700CE0}"/>
     <hyperlink ref="G16" r:id="rId6" xr:uid="{B124CD4F-D745-49D0-AAEB-84317DC609E1}"/>
-    <hyperlink ref="G18" r:id="rId7" xr:uid="{FD0E7AB6-4D2D-437F-8673-7303605E6D75}"/>
-    <hyperlink ref="G20" r:id="rId8" xr:uid="{B264EFA4-6566-4863-ACF7-5A3470E996C6}"/>
-    <hyperlink ref="G19" r:id="rId9" xr:uid="{B5F7F352-2522-4539-8C1E-218CE18B2221}"/>
-    <hyperlink ref="G4" r:id="rId10" xr:uid="{66EC1951-A599-4F2E-9360-EC2E1957AF36}"/>
-    <hyperlink ref="G6" r:id="rId11" xr:uid="{637266D6-6B1C-4E96-B92D-D8D9D35B0F55}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{17C1BDE8-33C5-467C-9A19-3F77F0E35278}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{8AAC629E-B696-4E9A-8393-905C309EF8AC}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{FD0E7AB6-4D2D-437F-8673-7303605E6D75}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{B5F7F352-2522-4539-8C1E-218CE18B2221}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{66EC1951-A599-4F2E-9360-EC2E1957AF36}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{637266D6-6B1C-4E96-B92D-D8D9D35B0F55}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{17C1BDE8-33C5-467C-9A19-3F77F0E35278}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{8AAC629E-B696-4E9A-8393-905C309EF8AC}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{182B1444-603C-4FAA-A152-B816BB9A2056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
@@ -6712,7 +6575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F98D9D-18A9-4D83-A337-81B9ED0B8218}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -6732,31 +6595,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6770,13 +6633,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -6785,7 +6648,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6799,13 +6662,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -6814,7 +6677,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6828,13 +6691,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -6843,7 +6706,7 @@
         <v>0.125</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6893,11 +6756,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93DF4F7-3EA2-4CC1-B26E-40F3D884DD27}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6911,57 +6774,58 @@
     <col min="7" max="7" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="128.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="92" style="2" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" customWidth="1"/>
+    <col min="12" max="14" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6969,16 +6833,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>0</v>
@@ -6987,7 +6851,7 @@
         <v>13.69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -7001,16 +6865,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -7027,19 +6891,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>5</v>
@@ -7050,18 +6914,18 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7074,16 +6938,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>5</v>
@@ -7104,16 +6968,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
@@ -7124,18 +6988,18 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7145,19 +7009,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -7168,275 +7032,275 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>135</v>
+      <c r="C12" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I17" s="5">
         <v>10.89</v>
       </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>10.89</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4.18</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>9.61</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>27</v>
+      <c r="C18" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>14.62</v>
-      </c>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>10.89</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>180</v>
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -7444,194 +7308,180 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="4">
-        <v>20</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="I23" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>35</v>
+      <c r="C24" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>6.04</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="4">
-        <v>10.09</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-    </row>
-    <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="I27" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
@@ -7676,41 +7526,37 @@
     <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J47" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="J17:J18"/>
+  <mergeCells count="9">
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A9:J9"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{CD656AC4-8458-4867-829E-CA51F0107897}"/>
     <hyperlink ref="H8" r:id="rId2" xr:uid="{79ABD4A7-C26B-4A82-9794-0D214B559FF1}"/>
     <hyperlink ref="H7" r:id="rId3" xr:uid="{01019CD1-9798-4504-97EE-355CF7B42C4F}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{4B9E5698-82ED-464F-82E4-C6C3AA6B8540}"/>
-    <hyperlink ref="H15" r:id="rId5" xr:uid="{820AACB4-4BC1-4E4B-9C53-0546E7549776}"/>
-    <hyperlink ref="H17" r:id="rId6" xr:uid="{DFF3C6BA-6B53-4915-9F58-B6595FD36376}"/>
-    <hyperlink ref="H19" r:id="rId7" xr:uid="{82210985-3867-4D75-B36A-F044AFB1DFC4}"/>
-    <hyperlink ref="H18" r:id="rId8" xr:uid="{8E877B7E-549E-44AA-81B1-E58278628F43}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{9EBC1707-7E5E-441F-A63F-3E97E79D0C4F}"/>
-    <hyperlink ref="H24" r:id="rId10" xr:uid="{11351463-F6E5-4095-B409-B8B3F2832A97}"/>
-    <hyperlink ref="H25" r:id="rId11" xr:uid="{138F43FB-42D6-4A59-AC68-9C5A712D907E}"/>
-    <hyperlink ref="H26" r:id="rId12" xr:uid="{D5584238-78C2-4684-9DFE-451370B96CD0}"/>
-    <hyperlink ref="H5" r:id="rId13" xr:uid="{DF0CD035-7C0D-4302-88F3-AFBD694BB85E}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{945E1AED-6845-49D1-9EA5-16DBFFEE485E}"/>
-    <hyperlink ref="H28" r:id="rId15" xr:uid="{76679DF5-3E21-427F-953D-58A955917E19}"/>
-    <hyperlink ref="H3" r:id="rId16" xr:uid="{7574DF70-8495-4B79-AC54-092FA41F160C}"/>
-    <hyperlink ref="H10" r:id="rId17" xr:uid="{6563BDB9-544B-40F4-8602-951E0D46DC2C}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{DFC7C83B-2F06-4EC9-A10E-3EDA8AFC9F07}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{4B9E5698-82ED-464F-82E4-C6C3AA6B8540}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{820AACB4-4BC1-4E4B-9C53-0546E7549776}"/>
+    <hyperlink ref="H20" r:id="rId6" xr:uid="{9EBC1707-7E5E-441F-A63F-3E97E79D0C4F}"/>
+    <hyperlink ref="H22" r:id="rId7" xr:uid="{11351463-F6E5-4095-B409-B8B3F2832A97}"/>
+    <hyperlink ref="H23" r:id="rId8" xr:uid="{138F43FB-42D6-4A59-AC68-9C5A712D907E}"/>
+    <hyperlink ref="H24" r:id="rId9" xr:uid="{D5584238-78C2-4684-9DFE-451370B96CD0}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{DF0CD035-7C0D-4302-88F3-AFBD694BB85E}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{945E1AED-6845-49D1-9EA5-16DBFFEE485E}"/>
+    <hyperlink ref="H27" r:id="rId12" xr:uid="{76679DF5-3E21-427F-953D-58A955917E19}"/>
+    <hyperlink ref="H3" r:id="rId13" xr:uid="{7574DF70-8495-4B79-AC54-092FA41F160C}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{6563BDB9-544B-40F4-8602-951E0D46DC2C}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{DFC7C83B-2F06-4EC9-A10E-3EDA8AFC9F07}"/>
+    <hyperlink ref="H14" r:id="rId16" xr:uid="{DBA8D6CC-3B99-4249-9AFD-C84C5130E327}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{F28E17D9-3CDE-47A2-827D-A8F40C88D79B}"/>
+    <hyperlink ref="H25" r:id="rId18" location="Werkstoff%3Du(85eb5967-f719-44cc-a7f3-84339b5839ac)%3Bd1%3Dc(25)%3Bd3%3Du(0c49c7b3-a2d5-4127-b6ac-792d414b1606)%3BForm%3Du(c0aa885f-8ea8-4010-abd2-06a95d4f35f0)" xr:uid="{D6B2EA74-8003-4424-A06E-78E36D093C76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
@@ -7721,9 +7567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686073A0-D06A-4A43-B3C7-39882209510A}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7737,131 +7583,131 @@
     <col min="7" max="7" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="87.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="82" style="2" customWidth="1"/>
     <col min="11" max="11" width="101.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="A2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>8</v>
       </c>
       <c r="B3" s="26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I3" s="12">
         <v>0.1</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="A4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
@@ -7870,45 +7716,45 @@
         <v>8.99</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="A6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>0</v>
@@ -7918,68 +7764,68 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I9" s="12">
         <v>9.9700000000000006</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>1</v>
       </c>
@@ -7987,19 +7833,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>0</v>
@@ -8008,26 +7854,26 @@
         <v>7.99</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="A12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
@@ -8037,19 +7883,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
@@ -8058,24 +7904,24 @@
         <v>9.99</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="A14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -8085,19 +7931,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>0</v>
@@ -8106,24 +7952,24 @@
         <v>13.49</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
@@ -8133,19 +7979,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>0</v>
@@ -8163,19 +8009,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -8185,78 +8031,77 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="26">
-        <v>2</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>11.99</v>
-      </c>
-      <c r="J20" s="6"/>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>1</v>
       </c>
       <c r="B21" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="12">
-        <v>12.49</v>
+        <v>11.99</v>
       </c>
       <c r="J21" s="6"/>
     </row>
@@ -8268,19 +8113,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>0</v>
@@ -8291,19 +8136,19 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
+      <c r="A23" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -8313,19 +8158,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>0</v>
@@ -8334,258 +8179,256 @@
         <v>8.99</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>1</v>
       </c>
       <c r="B26" s="26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>372</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I26" s="12">
-        <v>1.32</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>335</v>
-      </c>
+        <v>5.99</v>
+      </c>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
+      <c r="A27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>1</v>
       </c>
       <c r="B28" s="26">
-        <v>2</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+        <v>4.55</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>1</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B29" s="26">
         <v>1</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="12">
-        <v>4.55</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>119</v>
-      </c>
+      <c r="C29" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="12">
+        <v>5.17</v>
+      </c>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>1</v>
       </c>
       <c r="B31" s="26">
-        <v>1</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
-        <v>5.17</v>
-      </c>
-      <c r="J31" s="40"/>
+        <v>8.99</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>1</v>
       </c>
       <c r="B33" s="26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="I33" s="12">
-        <v>8.99</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>340</v>
-      </c>
+        <v>4.88</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
+      <c r="A34" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J35" s="6"/>
     </row>
@@ -8653,23 +8496,24 @@
       <c r="J56" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A23:K23"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{EF6854EA-9FC9-4FFA-B284-7464CDC602EE}"/>
@@ -8680,16 +8524,16 @@
     <hyperlink ref="H15" r:id="rId6" xr:uid="{32682F16-4F4F-428E-9C02-7D1F0B67B9AF}"/>
     <hyperlink ref="H3" r:id="rId7" xr:uid="{9C7E491B-4188-438D-AF00-DEFC44C74898}"/>
     <hyperlink ref="H18" r:id="rId8" xr:uid="{8199EDF6-B1ED-4FB9-BD77-B9BF33F28968}"/>
-    <hyperlink ref="H31" r:id="rId9" xr:uid="{8BD9B7BD-11F9-4180-A94E-DC36EA883CB1}"/>
-    <hyperlink ref="H30" r:id="rId10" xr:uid="{3F333B03-3E85-41B7-8AA9-18DC9DE4D965}"/>
-    <hyperlink ref="H28" r:id="rId11" xr:uid="{71D4D980-2A12-4F6C-A297-1013F776DA79}"/>
+    <hyperlink ref="H29" r:id="rId9" xr:uid="{8BD9B7BD-11F9-4180-A94E-DC36EA883CB1}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{3F333B03-3E85-41B7-8AA9-18DC9DE4D965}"/>
+    <hyperlink ref="H26" r:id="rId11" xr:uid="{71D4D980-2A12-4F6C-A297-1013F776DA79}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{2BCF9FEE-4678-4F55-A819-842E3221F1B8}"/>
-    <hyperlink ref="H20" r:id="rId13" xr:uid="{CE798603-ADF1-46B7-AFA0-781B06FB2CCF}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{CE798603-ADF1-46B7-AFA0-781B06FB2CCF}"/>
     <hyperlink ref="H24" r:id="rId14" xr:uid="{5ECC50D4-780E-4814-B4BC-D4B4C339E08B}"/>
-    <hyperlink ref="H22" r:id="rId15" xr:uid="{1F9C4842-7E2D-40E4-8810-9F7B34D54D76}"/>
-    <hyperlink ref="H26" r:id="rId16" location="Werkstoff%3Du(85eb5967-f719-44cc-a7f3-84339b5839ac)%3Bd1%3Dc(25)%3Bd3%3Du(0c49c7b3-a2d5-4127-b6ac-792d414b1606)%3BForm%3Du(c0aa885f-8ea8-4010-abd2-06a95d4f35f0)" xr:uid="{D6B2EA74-8003-4424-A06E-78E36D093C76}"/>
-    <hyperlink ref="H33" r:id="rId17" xr:uid="{53E8A669-3EB3-4259-A86D-EAE251CED179}"/>
-    <hyperlink ref="H21" r:id="rId18" xr:uid="{C24409C7-1B7A-4386-B792-63EA1927E97A}"/>
+    <hyperlink ref="H31" r:id="rId15" xr:uid="{53E8A669-3EB3-4259-A86D-EAE251CED179}"/>
+    <hyperlink ref="H33" r:id="rId16" xr:uid="{F5198C59-9BD4-4100-8F0D-233C5165AB21}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{1F9C4842-7E2D-40E4-8810-9F7B34D54D76}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{B264EFA4-6566-4863-ACF7-5A3470E996C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
@@ -8698,11 +8542,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C95DF24-9A3F-4553-BF69-26B88B2716A4}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8716,51 +8560,55 @@
     <col min="7" max="7" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8768,57 +8616,57 @@
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I3" s="5">
         <v>14.26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5">
         <v>5.94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8826,28 +8674,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5">
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8855,128 +8703,131 @@
         <v>27</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>367</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>386</v>
+        <v>302</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I8" s="5">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>10.35</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8984,86 +8835,86 @@
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5">
         <v>17.18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I12" s="5">
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" s="4">
         <v>15.64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -9071,41 +8922,41 @@
         <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I14" s="4">
         <v>12.19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -9113,37 +8964,39 @@
         <v>1</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" s="4">
         <v>6.14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="A17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -9153,19 +9006,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -9179,22 +9032,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>0</v>
@@ -9203,39 +9056,14 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5.99</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -9243,53 +9071,52 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
+      <c r="C30" s="2"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -9297,9 +9124,6 @@
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9315,28 +9139,39 @@
     <hyperlink ref="H16" r:id="rId4" xr:uid="{BC97F1DD-5AEF-4594-8531-53E76F2520D3}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{22BB869E-4D9A-41C3-98D7-B1787ABFCB96}"/>
     <hyperlink ref="H4" r:id="rId6" xr:uid="{11922DEA-CA78-45EF-83AD-95FFAB1A8256}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{D0529A49-19CA-4F13-A97C-5EB5F9EDD18D}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{D0529A49-19CA-4F13-A97C-5EB5F9EDD18D}"/>
     <hyperlink ref="H6" r:id="rId8" xr:uid="{24E26945-6271-49C3-8924-F6EB4150CBBD}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{1388AB2F-0B7C-4E41-BB14-5584D21AF8A0}"/>
-    <hyperlink ref="H8" r:id="rId10" xr:uid="{8DFB78D7-E0A1-4BB5-B5F0-60531B0FEE66}"/>
-    <hyperlink ref="H9" r:id="rId11" xr:uid="{8610DCC0-5E05-4F9A-BA6B-25878823115B}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{659178E3-F717-4B6D-892B-952AAAD9E019}"/>
-    <hyperlink ref="H18" r:id="rId13" xr:uid="{071516B5-E3D0-4FEA-900C-CA8192FE000E}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{FBE50A9A-67E2-4426-A37C-74AE018B908E}"/>
-    <hyperlink ref="H19" r:id="rId15" xr:uid="{59C82901-DC57-4D45-BEC6-A79244FF2640}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{8DFB78D7-E0A1-4BB5-B5F0-60531B0FEE66}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{659178E3-F717-4B6D-892B-952AAAD9E019}"/>
+    <hyperlink ref="H18" r:id="rId12" xr:uid="{071516B5-E3D0-4FEA-900C-CA8192FE000E}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{59C82901-DC57-4D45-BEC6-A79244FF2640}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{6907D659-5418-4A9F-A222-13E5E1AB8E79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE020ADE-890C-4257-95CD-2B77CA6566F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9574,28 +9409,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9621,9 +9446,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
+++ b/Documentation/BOMs/Wilson Thrust BOM v4 with Grip LEDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7a43267b7fa0998/Github Repositories/WilsonThrust510/Documentation/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="14_{D6E80435-493E-47AA-B39A-89A10D29D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12346C78-727E-4E73-9B1F-7E8CE3AC3091}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="14_{D6E80435-493E-47AA-B39A-89A10D29D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B35E95-9789-46AA-97CE-BA89722C501F}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1050" windowWidth="33270" windowHeight="17640" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26505" windowHeight="20985" firstSheet="3" activeTab="5" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Large PCB Parts" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Input Hardware" sheetId="6" r:id="rId3"/>
     <sheet name="Other Hardware &amp; Materials" sheetId="8" r:id="rId4"/>
     <sheet name="Fasteners" sheetId="10" r:id="rId5"/>
-    <sheet name="Equipment" sheetId="11" r:id="rId6"/>
+    <sheet name="Equipment" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="395">
   <si>
     <t>Amazon</t>
   </si>
@@ -5280,6 +5280,227 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">10 pcs
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FFF 3D Printer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ender 3, CR-10, Dremel DigiLab, Flashforge Adventure 3, etc...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Minimum Dimensions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150 mm X Axis (width)
+120 mm Y Axis (depth)
+130 mm Z Axis (height)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Soldering Iron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with long narrow tip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;M                        
+</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resin 3D Printer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ender 3, CR-10, Dremel DigiLab, Flashforge Adventure 3, etc...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -5691,6 +5912,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5712,9 +5936,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5724,7 +5945,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6053,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCF817-8F85-4AC7-830C-DC635E268E92}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6105,18 +6326,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6175,18 +6396,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6216,18 +6437,18 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6257,18 +6478,18 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6298,18 +6519,18 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -6336,7 +6557,7 @@
       <c r="I12" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="42" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6365,7 +6586,7 @@
       <c r="I13" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -6392,7 +6613,7 @@
       <c r="I14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6419,7 +6640,7 @@
       <c r="I15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -6446,7 +6667,7 @@
       <c r="I16" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -6455,7 +6676,7 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="38">
         <v>4189304386</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -6476,18 +6697,18 @@
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -6577,7 +6798,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6812,18 +7033,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6914,18 +7135,18 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6988,18 +7209,18 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7032,18 +7253,18 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7076,18 +7297,18 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7117,7 +7338,7 @@
       <c r="I14" s="4">
         <v>1.05</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="42" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7149,7 +7370,7 @@
       <c r="I15" s="4">
         <v>1.05</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7241,18 +7462,18 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7287,18 +7508,18 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7424,18 +7645,18 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -7567,9 +7788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686073A0-D06A-4A43-B3C7-39882209510A}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,19 +7894,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -7720,19 +7941,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -7764,19 +7985,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -7811,19 +8032,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -7861,19 +8082,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
@@ -7909,19 +8130,19 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -7957,19 +8178,19 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
@@ -8061,19 +8282,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
@@ -8136,19 +8357,19 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -8183,19 +8404,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -8228,19 +8449,19 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -8270,7 +8491,7 @@
       <c r="I28" s="12">
         <v>4.55</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="42" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8302,22 +8523,22 @@
       <c r="I29" s="12">
         <v>5.17</v>
       </c>
-      <c r="J29" s="41"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
@@ -8352,19 +8573,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
@@ -8394,25 +8615,25 @@
       <c r="I33" s="12">
         <v>4.88</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
@@ -8497,16 +8718,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A23:K23"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A30:K30"/>
@@ -8514,6 +8725,16 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="A32:K32"/>
     <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{EF6854EA-9FC9-4FFA-B284-7464CDC602EE}"/>
@@ -8596,17 +8817,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8815,17 +9036,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8944,17 +9165,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -8986,17 +9207,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -9154,24 +9375,1095 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE020ADE-890C-4257-95CD-2B77CA6566F5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BB193A-9919-48A2-8F4B-B838BD8F789B}">
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="0.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="82" style="2" customWidth="1"/>
+    <col min="12" max="12" width="101.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26">
+        <v>16</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>8</v>
+      </c>
+      <c r="B4" s="26">
+        <v>16</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>8.99</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
+        <v>4</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>9.99</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
+        <v>13.49</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26">
+        <v>5</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>11.99</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>8.99</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26">
+        <v>2</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>5.99</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="12">
+        <v>4.55</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>1</v>
+      </c>
+      <c r="B30" s="26">
+        <v>1</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="12">
+        <v>5.17</v>
+      </c>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>1</v>
+      </c>
+      <c r="B32" s="26">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>8.99</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J34" s="12">
+        <v>4.88</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L34" s="49"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{6A03FCE6-1EEA-45BD-B885-865F18375D3F}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{414E7B9A-A2FE-41D6-B284-4B16859CD9E7}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{288AA5C6-C6DB-45A0-B271-738E333C8D89}"/>
+    <hyperlink ref="I12" r:id="rId4" xr:uid="{0F40848D-C4B1-413B-A994-488F57D56E67}"/>
+    <hyperlink ref="I14" r:id="rId5" xr:uid="{D0DA4F44-228A-473A-B75C-91169EDA4642}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{60C5F628-6A53-4CFC-9D8E-32CA1DA42432}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{E706CEFC-E8EC-428D-9B63-58B0FC9DB02F}"/>
+    <hyperlink ref="I19" r:id="rId8" xr:uid="{E6A5B7C8-3AEF-4D14-B99D-C3FDAEA8ECA3}"/>
+    <hyperlink ref="I30" r:id="rId9" xr:uid="{0DD4A652-2130-4E8E-B358-1831F001D0D5}"/>
+    <hyperlink ref="I29" r:id="rId10" xr:uid="{2D2A087C-A49A-4CB7-AE03-BBBD99038C4A}"/>
+    <hyperlink ref="I27" r:id="rId11" xr:uid="{535697A3-FB32-4AD5-8EC3-9DB81315EF09}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{507054CD-92E5-46CD-890D-0BEF6E88086A}"/>
+    <hyperlink ref="I22" r:id="rId13" xr:uid="{6F0800D1-4351-4B09-8D0A-FD8B4CE48DBC}"/>
+    <hyperlink ref="I25" r:id="rId14" xr:uid="{97E76EC0-211F-4FB0-AB6A-86F4D1AAE566}"/>
+    <hyperlink ref="I32" r:id="rId15" xr:uid="{7FC30CD0-2D28-4628-AC77-BE72579DFFB7}"/>
+    <hyperlink ref="I34" r:id="rId16" xr:uid="{06FDAD03-2BCD-49AC-877F-2394BBDF5BA6}"/>
+    <hyperlink ref="I23" r:id="rId17" xr:uid="{57EA0C60-2827-423D-B4F9-4FE13618A237}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{5767F028-2298-43FC-880A-95460B8D2ECC}"/>
+    <hyperlink ref="I4" r:id="rId19" xr:uid="{E57F0A12-1E71-4122-BD88-D0D71C057CC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9409,18 +10701,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9446,19 +10748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6617845-3756-4220-89E8-DEC7827AA96C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA8B08B-0469-4FB4-9569-1E0C636A2DDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c035dcc5-7e05-44d6-8b62-8e13ee76956a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c154e5e-eb98-4d8e-85bb-17313b0ff9ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>